--- a/docs/SCRATCH應用競賽國中乙組程式設計組決賽名冊.xlsx
+++ b/docs/SCRATCH應用競賽國中乙組程式設計組決賽名冊.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="164">
   <si>
     <t>序</t>
   </si>
@@ -45,118 +45,154 @@
     <t>SCRATCH應用競賽國中乙組程式設計組</t>
   </si>
   <si>
-    <t>大甲區日南國中</t>
-  </si>
-  <si>
-    <t>蕭冠廷</t>
-  </si>
-  <si>
-    <t>陳隆勝</t>
-  </si>
-  <si>
-    <t>hp90y3</t>
-  </si>
-  <si>
-    <t>dx81p5</t>
-  </si>
-  <si>
-    <t>大里區市立大里高中</t>
-  </si>
-  <si>
-    <t>林宏昀</t>
+    <t>大里區大里高中</t>
+  </si>
+  <si>
+    <t>郭騏熏</t>
   </si>
   <si>
     <t>吳秀玲</t>
   </si>
   <si>
-    <t>rs53bj6</t>
-  </si>
-  <si>
-    <t>myg89j3</t>
+    <t>k28rs2</t>
+  </si>
+  <si>
+    <t>nc55xb7</t>
   </si>
   <si>
     <t>湯佳荃</t>
   </si>
   <si>
-    <t>rsm38p7</t>
-  </si>
-  <si>
-    <t>frs72c2</t>
+    <t>e66e2</t>
+  </si>
+  <si>
+    <t>j70jk6</t>
+  </si>
+  <si>
+    <t>林登凱</t>
+  </si>
+  <si>
+    <t>j63pe7</t>
+  </si>
+  <si>
+    <t>dx81x1</t>
   </si>
   <si>
     <t>大里區立人高中</t>
   </si>
   <si>
-    <t>黃彬</t>
+    <t>何丞翔</t>
   </si>
   <si>
     <t>黃玉勝</t>
   </si>
   <si>
-    <t>g78bj2</t>
-  </si>
-  <si>
-    <t>r54wh5</t>
-  </si>
-  <si>
-    <t>許智皓</t>
-  </si>
-  <si>
-    <t>m55d6</t>
-  </si>
-  <si>
-    <t>fr66pe9</t>
-  </si>
-  <si>
-    <t>何丞翔</t>
-  </si>
-  <si>
-    <t>gw63s3</t>
-  </si>
-  <si>
-    <t>x79g4</t>
+    <t>hp78s4</t>
+  </si>
+  <si>
+    <t>n96an1</t>
   </si>
   <si>
     <t>徐人傑</t>
   </si>
   <si>
-    <t>n20p2</t>
-  </si>
-  <si>
-    <t>h66my2</t>
+    <t>xb9tv3</t>
+  </si>
+  <si>
+    <t>tv34wh8</t>
+  </si>
+  <si>
+    <t>大里區光正國中</t>
+  </si>
+  <si>
+    <t>楊凱翔</t>
+  </si>
+  <si>
+    <t>蔡佩勤</t>
+  </si>
+  <si>
+    <t>my84c9</t>
+  </si>
+  <si>
+    <t>nc76bj2</t>
+  </si>
+  <si>
+    <t>黃天佑</t>
+  </si>
+  <si>
+    <t>江明達</t>
+  </si>
+  <si>
+    <t>jk2dx8</t>
+  </si>
+  <si>
+    <t>gw68w5</t>
+  </si>
+  <si>
+    <t>太平區華盛頓中學</t>
+  </si>
+  <si>
+    <t>廖敏翔</t>
+  </si>
+  <si>
+    <t>林冠文</t>
+  </si>
+  <si>
+    <t>w55a3</t>
+  </si>
+  <si>
+    <t>my16k5</t>
+  </si>
+  <si>
+    <t>張義弘</t>
+  </si>
+  <si>
+    <t>xb31xb6</t>
+  </si>
+  <si>
+    <t>kf30b3</t>
+  </si>
+  <si>
+    <t>賴廷楚</t>
+  </si>
+  <si>
+    <t>v87pe6</t>
+  </si>
+  <si>
+    <t>k84g5</t>
   </si>
   <si>
     <t>北屯區三光國中</t>
   </si>
   <si>
+    <t>施正祐</t>
+  </si>
+  <si>
+    <t>卓永祥</t>
+  </si>
+  <si>
+    <t>m90et4</t>
+  </si>
+  <si>
+    <t>fr4k8</t>
+  </si>
+  <si>
+    <t>趙紹宸</t>
+  </si>
+  <si>
+    <t>my56et6</t>
+  </si>
+  <si>
+    <t>x69x6</t>
+  </si>
+  <si>
     <t>許睿宸</t>
   </si>
   <si>
-    <t>卓永祥</t>
-  </si>
-  <si>
-    <t>jk79k7</t>
-  </si>
-  <si>
-    <t>nc83d3</t>
-  </si>
-  <si>
-    <t>施正祐</t>
-  </si>
-  <si>
-    <t>rsm87g1</t>
-  </si>
-  <si>
-    <t>cd88b5</t>
-  </si>
-  <si>
-    <t>趙紹宸</t>
-  </si>
-  <si>
-    <t>hpe52r4</t>
-  </si>
-  <si>
-    <t>hp70my4</t>
+    <t>bj24f7</t>
+  </si>
+  <si>
+    <t>hpe62j2</t>
   </si>
   <si>
     <t>北屯區大德國中</t>
@@ -168,124 +204,76 @@
     <t>賴佳賢</t>
   </si>
   <si>
-    <t>gw41wh6</t>
-  </si>
-  <si>
-    <t>kf14nc8</t>
-  </si>
-  <si>
-    <t>張俊淇</t>
-  </si>
-  <si>
-    <t>jk8gw7</t>
-  </si>
-  <si>
-    <t>y83cd4</t>
-  </si>
-  <si>
-    <t>黃健鈞</t>
-  </si>
-  <si>
-    <t>nc37w7</t>
-  </si>
-  <si>
-    <t>hpe36s4</t>
-  </si>
-  <si>
-    <t>北屯區葳格高中</t>
-  </si>
-  <si>
-    <t>翁世勳</t>
-  </si>
-  <si>
-    <t>黃俊儒</t>
-  </si>
-  <si>
-    <t>k22c3</t>
-  </si>
-  <si>
-    <t>rs55x1</t>
-  </si>
-  <si>
-    <t>甘傑宇</t>
-  </si>
-  <si>
-    <t>n60w2</t>
-  </si>
-  <si>
-    <t>v15r6</t>
+    <t>t59yg6</t>
+  </si>
+  <si>
+    <t>jkf19tv2</t>
+  </si>
+  <si>
+    <t>張祐睿</t>
+  </si>
+  <si>
+    <t>cd74t4</t>
+  </si>
+  <si>
+    <t>tv19x9</t>
+  </si>
+  <si>
+    <t>黃正宇</t>
+  </si>
+  <si>
+    <t>x75x4</t>
+  </si>
+  <si>
+    <t>nc95r4</t>
   </si>
   <si>
     <t>北區立人國中</t>
   </si>
   <si>
+    <t>管文奕</t>
+  </si>
+  <si>
+    <t>魏金羊</t>
+  </si>
+  <si>
+    <t>kf39n5</t>
+  </si>
+  <si>
+    <t>et73rs6</t>
+  </si>
+  <si>
     <t>廖翊鈞</t>
   </si>
   <si>
-    <t>魏金羊</t>
-  </si>
-  <si>
-    <t>fr76pe1</t>
-  </si>
-  <si>
-    <t>sm58bj4</t>
-  </si>
-  <si>
-    <t>管文奕</t>
-  </si>
-  <si>
-    <t>tv72bj6</t>
-  </si>
-  <si>
-    <t>smy21xb5</t>
-  </si>
-  <si>
-    <t>王柏捷</t>
-  </si>
-  <si>
-    <t>xb2r3</t>
-  </si>
-  <si>
-    <t>h53an4</t>
-  </si>
-  <si>
-    <t>北區曉明女中</t>
-  </si>
-  <si>
-    <t>黃竹均</t>
-  </si>
-  <si>
-    <t>劉國聲</t>
-  </si>
-  <si>
-    <t>v62j2</t>
-  </si>
-  <si>
-    <t>myg91c5</t>
+    <t>my9c4</t>
+  </si>
+  <si>
+    <t>d28rs5</t>
   </si>
   <si>
     <t>外埔區外埔國中</t>
   </si>
   <si>
-    <t>鄭磬蔚</t>
+    <t>劉東峻</t>
   </si>
   <si>
     <t>林麗貞</t>
   </si>
   <si>
-    <t>s29my7</t>
-  </si>
-  <si>
-    <t>fr40p7</t>
-  </si>
-  <si>
-    <t>劉東峻</t>
-  </si>
-  <si>
-    <t>xb92kf6</t>
-  </si>
-  <si>
-    <t>jk78x7</t>
+    <t>cd17j3</t>
+  </si>
+  <si>
+    <t>ncd69rs6</t>
+  </si>
+  <si>
+    <t>曾黃壕</t>
+  </si>
+  <si>
+    <t>tv37kf6</t>
+  </si>
+  <si>
+    <t>sm57x8</t>
   </si>
   <si>
     <t>后里區后里國中</t>
@@ -294,28 +282,46 @@
     <t>徐紹恩</t>
   </si>
   <si>
-    <t>劉怡君</t>
-  </si>
-  <si>
-    <t>frs42nc4</t>
-  </si>
-  <si>
-    <t>fr8gw8</t>
-  </si>
-  <si>
-    <t>西屯區中山國中</t>
-  </si>
-  <si>
-    <t>許冠揚</t>
-  </si>
-  <si>
-    <t>何孟杰</t>
-  </si>
-  <si>
-    <t>yg55x2</t>
-  </si>
-  <si>
-    <t>rs96s4</t>
+    <t>李秦宇</t>
+  </si>
+  <si>
+    <t>p55gw6</t>
+  </si>
+  <si>
+    <t>yg34hp4</t>
+  </si>
+  <si>
+    <t>西屯區安和國中</t>
+  </si>
+  <si>
+    <t>蔡孟勳</t>
+  </si>
+  <si>
+    <t>郭炯彬</t>
+  </si>
+  <si>
+    <t>b68jk7</t>
+  </si>
+  <si>
+    <t>r87nc5</t>
+  </si>
+  <si>
+    <t>龔德恩</t>
+  </si>
+  <si>
+    <t>t8x6</t>
+  </si>
+  <si>
+    <t>tv37p9</t>
+  </si>
+  <si>
+    <t>鄭詩璇</t>
+  </si>
+  <si>
+    <t>bj85tv8</t>
+  </si>
+  <si>
+    <t>jk40et6</t>
   </si>
   <si>
     <t>沙鹿區北勢國中</t>
@@ -327,208 +333,184 @@
     <t>杜建勳</t>
   </si>
   <si>
-    <t>pe28t5</t>
-  </si>
-  <si>
-    <t>nc82dx6</t>
-  </si>
-  <si>
-    <t>侯智凱</t>
-  </si>
-  <si>
-    <t>ncd18kf8</t>
-  </si>
-  <si>
-    <t>gw73wh4</t>
-  </si>
-  <si>
-    <t>東區育英國中</t>
-  </si>
-  <si>
-    <t>劉敬之</t>
-  </si>
-  <si>
-    <t>童尚宏</t>
-  </si>
-  <si>
-    <t>xb23sm5</t>
-  </si>
-  <si>
-    <t>k84xb8</t>
-  </si>
-  <si>
-    <t>何文魁</t>
-  </si>
-  <si>
-    <t>k73f8</t>
-  </si>
-  <si>
-    <t>x4r9</t>
-  </si>
-  <si>
-    <t>南屯區大墩國中</t>
-  </si>
-  <si>
-    <t>陳浩洋</t>
-  </si>
-  <si>
-    <t>鍾承翰</t>
-  </si>
-  <si>
-    <t>hp64x5</t>
-  </si>
-  <si>
-    <t>my69gw1</t>
-  </si>
-  <si>
-    <t>烏日區烏日國中</t>
-  </si>
-  <si>
-    <t>林偉賢</t>
-  </si>
-  <si>
-    <t>張淑貞</t>
-  </si>
-  <si>
-    <t>an94pe7</t>
-  </si>
-  <si>
-    <t>xbj91nc8</t>
-  </si>
-  <si>
-    <t>神岡區神岡國中</t>
-  </si>
-  <si>
-    <t>陳葆傑</t>
-  </si>
-  <si>
-    <t>朱慶文</t>
-  </si>
-  <si>
-    <t>bj45h8</t>
-  </si>
-  <si>
-    <t>hp81wh4</t>
-  </si>
-  <si>
-    <t>黃信誌</t>
-  </si>
-  <si>
-    <t>w76dx6</t>
-  </si>
-  <si>
-    <t>sm12et4</t>
-  </si>
-  <si>
-    <t>梧棲區梧棲國中</t>
-  </si>
-  <si>
-    <t>管祈銓</t>
-  </si>
-  <si>
-    <t>陳有量</t>
-  </si>
-  <si>
-    <t>cd55v1</t>
-  </si>
-  <si>
-    <t>j6j5</t>
+    <t>xb74j7</t>
+  </si>
+  <si>
+    <t>xb35fr3</t>
+  </si>
+  <si>
+    <t>蘇建岳</t>
+  </si>
+  <si>
+    <t>yg98rs7</t>
+  </si>
+  <si>
+    <t>tv96w3</t>
+  </si>
+  <si>
+    <t>南區四育國中</t>
+  </si>
+  <si>
+    <t>鄭博文</t>
+  </si>
+  <si>
+    <t>許秋蘭</t>
+  </si>
+  <si>
+    <t>kfr62j4</t>
+  </si>
+  <si>
+    <t>etv26dx5</t>
   </si>
   <si>
     <t>清水區清泉國中</t>
   </si>
   <si>
-    <t>蔡冠均</t>
+    <t>楊俊佑</t>
   </si>
   <si>
     <t>林清煙</t>
   </si>
   <si>
-    <t>pet94w2</t>
-  </si>
-  <si>
-    <t>p46tv9</t>
-  </si>
-  <si>
-    <t>鄭珉聿</t>
-  </si>
-  <si>
-    <t>bj38a9</t>
-  </si>
-  <si>
-    <t>xb14wh2</t>
-  </si>
-  <si>
-    <t>李政昀</t>
-  </si>
-  <si>
-    <t>gwh48tv5</t>
-  </si>
-  <si>
-    <t>rs45d8</t>
+    <t>et93pe7</t>
+  </si>
+  <si>
+    <t>b56cd5</t>
+  </si>
+  <si>
+    <t>卓立凱</t>
+  </si>
+  <si>
+    <t>k25n2</t>
+  </si>
+  <si>
+    <t>dx94pe2</t>
+  </si>
+  <si>
+    <t>何容誠</t>
+  </si>
+  <si>
+    <t>my83cd8</t>
+  </si>
+  <si>
+    <t>gw80gw2</t>
   </si>
   <si>
     <t>新社區新社高中</t>
   </si>
   <si>
-    <t>李秉儒</t>
-  </si>
-  <si>
-    <t>顏永山</t>
-  </si>
-  <si>
-    <t>y39nc1</t>
-  </si>
-  <si>
-    <t>h21d5</t>
+    <t>劉忠原</t>
+  </si>
+  <si>
+    <t>詹敬強</t>
+  </si>
+  <si>
+    <t>bj21jk7</t>
+  </si>
+  <si>
+    <t>smy68kf8</t>
+  </si>
+  <si>
+    <t>潭子區弘文高中</t>
+  </si>
+  <si>
+    <t>林弘修</t>
+  </si>
+  <si>
+    <t>張政豐</t>
+  </si>
+  <si>
+    <t>et57c4</t>
+  </si>
+  <si>
+    <t>my45w3</t>
+  </si>
+  <si>
+    <t>謝珷兆</t>
+  </si>
+  <si>
+    <t>j58kf6</t>
+  </si>
+  <si>
+    <t>dx59wh5</t>
+  </si>
+  <si>
+    <t>龍井區四箴國中</t>
+  </si>
+  <si>
+    <t>連邱揚</t>
+  </si>
+  <si>
+    <t>林永森</t>
+  </si>
+  <si>
+    <t>d32pe6</t>
+  </si>
+  <si>
+    <t>et87s7</t>
+  </si>
+  <si>
+    <t>王昱</t>
+  </si>
+  <si>
+    <t>pe49j2</t>
+  </si>
+  <si>
+    <t>yg21et1</t>
   </si>
   <si>
     <t>龍井區龍井國中</t>
   </si>
   <si>
-    <t>何邵祺</t>
-  </si>
-  <si>
-    <t>陳殷諄</t>
-  </si>
-  <si>
-    <t>rs15nc7</t>
-  </si>
-  <si>
-    <t>gwh72d6</t>
-  </si>
-  <si>
     <t>蔡承霖</t>
   </si>
   <si>
-    <t>kf53y6</t>
-  </si>
-  <si>
-    <t>b26t7</t>
-  </si>
-  <si>
-    <t>張仲德</t>
-  </si>
-  <si>
-    <t>k96f3</t>
-  </si>
-  <si>
-    <t>jkf54g3</t>
+    <t>梁永和</t>
+  </si>
+  <si>
+    <t>f97cd8</t>
+  </si>
+  <si>
+    <t>y65t4</t>
+  </si>
+  <si>
+    <t>卓宸毅</t>
+  </si>
+  <si>
+    <t>k54et2</t>
+  </si>
+  <si>
+    <t>dx93nc7</t>
   </si>
   <si>
     <t>霧峰區光復國中小</t>
   </si>
   <si>
-    <t>林聖堯</t>
+    <t>王封騰</t>
   </si>
   <si>
     <t>蔡進雄</t>
   </si>
   <si>
-    <t>ygw80k8</t>
-  </si>
-  <si>
-    <t>t70fr2</t>
+    <t>hp76h7</t>
+  </si>
+  <si>
+    <t>dxb94tv8</t>
+  </si>
+  <si>
+    <t>霧峰區霧峰國中</t>
+  </si>
+  <si>
+    <t>朱德豪</t>
+  </si>
+  <si>
+    <t>曾立邦</t>
+  </si>
+  <si>
+    <t>s37y9</t>
+  </si>
+  <si>
+    <t>jk61bj2</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1530,11 +1512,11 @@
   <cols>
     <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1591,19 +1573,19 @@
         <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1614,19 +1596,19 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1637,19 +1619,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1660,19 +1642,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="F6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1683,13 +1665,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>30</v>
@@ -1706,19 +1688,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1729,19 +1711,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1752,19 +1734,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1775,19 +1757,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1798,19 +1780,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1821,19 +1803,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1844,19 +1826,19 @@
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1867,19 +1849,19 @@
         <v>7</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1890,19 +1872,19 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1913,19 +1895,19 @@
         <v>7</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>66</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1936,19 +1918,19 @@
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1959,19 +1941,19 @@
         <v>7</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1982,19 +1964,19 @@
         <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2005,19 +1987,19 @@
         <v>7</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>82</v>
       </c>
       <c r="E21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="G21" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2028,19 +2010,19 @@
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2051,19 +2033,19 @@
         <v>7</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2074,19 +2056,19 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>95</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2097,19 +2079,19 @@
         <v>7</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="G25" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2120,19 +2102,19 @@
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2143,19 +2125,19 @@
         <v>7</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="G27" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2166,19 +2148,19 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2189,19 +2171,19 @@
         <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="E29" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="F29" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="G29" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2212,19 +2194,19 @@
         <v>7</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2235,19 +2217,19 @@
         <v>7</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2261,16 +2243,16 @@
         <v>125</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>127</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2281,19 +2263,19 @@
         <v>7</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="G33" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2304,19 +2286,19 @@
         <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2330,16 +2312,16 @@
         <v>138</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>140</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2353,16 +2335,16 @@
         <v>138</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>140</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2373,19 +2355,19 @@
         <v>7</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="G37" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2396,19 +2378,19 @@
         <v>7</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2422,16 +2404,16 @@
         <v>154</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>156</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2442,42 +2424,19 @@
         <v>7</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F40" s="5" t="s">
+      <c r="G40" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="7">
-        <v>40</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
